--- a/instances/instance1.xlsx
+++ b/instances/instance1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstfrr/PycharmProjects/CrewSchedulingAndRecovery/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E489D-E888-A54B-8596-CF511816DFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F1E883-71BF-D441-B6E3-E482C05CA878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19500" activeTab="2" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
   </bookViews>
@@ -792,7 +792,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +814,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/instances/instance1.xlsx
+++ b/instances/instance1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstfrr/PycharmProjects/CrewSchedulingAndRecovery/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F1E883-71BF-D441-B6E3-E482C05CA878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7020B9-8D06-AD48-8910-3072413E5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19500" activeTab="2" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
   </bookViews>
@@ -792,7 +792,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/instances/instance1.xlsx
+++ b/instances/instance1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstfrr/PycharmProjects/CrewSchedulingAndRecovery/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7020B9-8D06-AD48-8910-3072413E5333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C300F0-131F-A148-A816-E1F77CA12EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19500" activeTab="2" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" activeTab="1" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Crew" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Flights!$A$1:$D$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$B$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>John</t>
   </si>
@@ -110,15 +110,6 @@
     <t>LAX</t>
   </si>
   <si>
-    <t>ODR</t>
-  </si>
-  <si>
-    <t>VOV</t>
-  </si>
-  <si>
-    <t>WAR</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -138,12 +129,33 @@
   </si>
   <si>
     <t>INITIAL_DATE</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>BOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd\ hh:mm"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -186,11 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,18 +612,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98965418-D9AF-6440-9451-66AA9203570F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="22.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,10 +635,10 @@
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -634,11 +649,11 @@
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2">
-        <v>45444.708333333336</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45444.854166666664</v>
+      <c r="C2" s="4">
+        <v>45451.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45451.375</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,137 +663,249 @@
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
-        <v>45444.34375</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45444.416666666664</v>
+      <c r="C3" s="4">
+        <v>45451.395833333336</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45451.520833333336</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45444.354166666664</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45444.375</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45451.541666666664</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45451.708333333336</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45444.458333333336</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45444.541666666664</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45451.729166666664</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45451.833333333336</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45444.458333333336</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45444.708333333336</v>
+      <c r="C6" s="4">
+        <v>45452.25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45452.375</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45444.25</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45444.645833333336</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45452.395833333336</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45452.625</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45444.458333333336</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45444.614583333336</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45452.645833333336</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45452.75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45444.291666666664</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45444.427083333336</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45452.770833333336</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45452.895833333336</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45444.354166666664</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45444.395833333336</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45452.916666666664</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45453.041666666664</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45444.5625</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45444.729166666664</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45453.25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45453.354166666664</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45453.375</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45453.458333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45453.479166666664</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45453.5625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45453.583333333336</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45453.708333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45453.729166666664</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45453.770833333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45453.791666666664</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45453.895833333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45454.25</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45454.458333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
-        <v>45444.708333333336</v>
-      </c>
-      <c r="D12" s="2">
-        <v>45444.854166666664</v>
+      <c r="C18" s="4">
+        <v>45454.479166666664</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45454.5625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45454.583333333336</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45454.645833333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45454.666666666664</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45454.8125</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CAF5E1-B066-EA4F-A369-4FABFB7927C7}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -806,12 +933,12 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
         <v>0.5</v>
@@ -819,7 +946,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>0.5</v>
@@ -827,7 +954,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -835,7 +962,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -843,7 +970,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>0.2</v>
@@ -851,7 +978,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>45444</v>

--- a/instances/instance1.xlsx
+++ b/instances/instance1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstfrr/PycharmProjects/CrewSchedulingAndRecovery/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C300F0-131F-A148-A816-E1F77CA12EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F0704-A7A7-5646-9F7A-CD729E85C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" activeTab="1" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Crew" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crew!$A$1:$A$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Flights!$A$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Flights!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,14 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>John</t>
   </si>
   <si>
-    <t>Albert</t>
-  </si>
-  <si>
     <t>Mary</t>
   </si>
   <si>
@@ -65,19 +62,10 @@
     <t>David</t>
   </si>
   <si>
-    <t>Eve</t>
-  </si>
-  <si>
     <t>Frank</t>
   </si>
   <si>
-    <t>George</t>
-  </si>
-  <si>
     <t>Carl</t>
-  </si>
-  <si>
-    <t>Joanne</t>
   </si>
   <si>
     <t>Julio</t>
@@ -154,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +161,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,12 +193,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C2A3D-3DCD-C44F-937A-AFA128694646}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,12 +529,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -546,12 +544,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -561,7 +559,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -571,37 +569,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98965418-D9AF-6440-9451-66AA9203570F}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,285 +606,504 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="7">
+        <v>45451.25</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45451.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4">
-        <v>45451.25</v>
-      </c>
-      <c r="D2" s="4">
-        <v>45451.375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>45451.395833333336</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>45451.520833333336</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45451.541666666664</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45451.708333333336</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45451.729166666664</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45451.833333333336</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45452.25</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45452.375</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45452.395833333336</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45452.625</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45452.645833333336</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45452.75</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45452.770833333336</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45452.895833333336</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45452.916666666664</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45453.041666666664</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45453.25</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45453.354166666664</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45453.375</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45453.458333333336</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45453.479166666664</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45453.5625</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45453.583333333336</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45453.708333333336</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45453.729166666664</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45453.770833333336</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4">
-        <v>45451.541666666664</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45451.708333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C16" s="7">
+        <v>45453.791666666664</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45453.895833333336</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45451.729166666664</v>
-      </c>
-      <c r="D5" s="4">
-        <v>45451.833333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45452.25</v>
-      </c>
-      <c r="D6" s="4">
-        <v>45452.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45452.395833333336</v>
-      </c>
-      <c r="D7" s="4">
-        <v>45452.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45452.645833333336</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45452.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45452.770833333336</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45452.895833333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45452.916666666664</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45453.041666666664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45454.25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45454.458333333336</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45454.479166666664</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45454.5625</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4">
-        <v>45453.25</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45453.354166666664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C19" s="7">
+        <v>45454.583333333336</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45454.645833333336</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4">
-        <v>45453.375</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45453.458333333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4">
-        <v>45453.479166666664</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45453.5625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4">
-        <v>45453.583333333336</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45453.708333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4">
-        <v>45453.729166666664</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45453.770833333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4">
-        <v>45453.791666666664</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45453.895833333336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4">
-        <v>45454.25</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45454.458333333336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4">
-        <v>45454.479166666664</v>
-      </c>
-      <c r="D18" s="4">
-        <v>45454.5625</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="4">
-        <v>45454.583333333336</v>
-      </c>
-      <c r="D19" s="4">
-        <v>45454.645833333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
         <v>45454.666666666664</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="7">
         <v>45454.8125</v>
       </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D12" xr:uid="{98965418-D9AF-6440-9451-66AA9203570F}"/>
@@ -930,15 +1127,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>0.5</v>
@@ -946,7 +1143,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>0.5</v>
@@ -954,7 +1151,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -962,7 +1159,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
@@ -970,7 +1167,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>0.2</v>
@@ -978,7 +1175,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>45444</v>
